--- a/Stocks/HEROMOTOCO.xlsx
+++ b/Stocks/HEROMOTOCO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>3351.2666666666664</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>3740.4063759741093</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>3681.373796099871</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>71.241576522317743</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>54.599999999999909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>95.400000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.57232704402515577</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>3714.6600714562142</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>2.876745483331888</v>
       </c>
       <c r="Y67">
         <v>2.4541491463409892</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>3885</v>
+      </c>
+      <c r="D83">
+        <v>3993.95</v>
+      </c>
+      <c r="E83">
+        <v>3838.45</v>
+      </c>
+      <c r="F83">
+        <v>3956</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>3929.4666666666667</v>
+      </c>
+      <c r="H83">
+        <v>3920.3687116960036</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>3974.9308397749783</v>
+      </c>
+      <c r="K83">
+        <v>3877.8416126100951</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>61.460127202053052</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>117.55000000000018</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>155.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.75594855305466357</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>3914.0409368972432</v>
+      </c>
+      <c r="W83">
+        <v>3865.1193442563263</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>48.92159264091697</v>
+      </c>
+      <c r="Y83">
+        <v>53.055349519199311</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>3940</v>
+      </c>
+      <c r="D84">
+        <v>3980</v>
+      </c>
+      <c r="E84">
+        <v>3921.7</v>
+      </c>
+      <c r="F84">
+        <v>3950</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>3950.5666666666671</v>
+      </c>
+      <c r="H84">
+        <v>3935.4676891813351</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>3976.0573198249831</v>
+      </c>
+      <c r="K84">
+        <v>3887.5879209189629</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>59.026705238906828</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>28.300000000000182</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>58.300000000000182</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.4854202401372229</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>3919.5731004515137</v>
+      </c>
+      <c r="W84">
+        <v>3871.4068002373392</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>48.166300214174498</v>
+      </c>
+      <c r="Y84">
+        <v>52.077539658194347</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>3950</v>
+      </c>
+      <c r="D85">
+        <v>4015</v>
+      </c>
+      <c r="E85">
+        <v>3949.85</v>
+      </c>
+      <c r="F85">
+        <v>3977.4</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>3980.75</v>
+      </c>
+      <c r="H85">
+        <v>3958.1088445906676</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>3984.7112487527647</v>
+      </c>
+      <c r="K85">
+        <v>3901.4239384925268</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>66.58004690922624</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>27.550000000000182</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>65.150000000000091</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.42287029930928849</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>3928.4695465358964</v>
+      </c>
+      <c r="W85">
+        <v>3879.2581483679069</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>49.211398167989501</v>
+      </c>
+      <c r="Y85">
+        <v>51.50431136015338</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>3989</v>
+      </c>
+      <c r="D86">
+        <v>4021</v>
+      </c>
+      <c r="E86">
+        <v>3968</v>
+      </c>
+      <c r="F86">
+        <v>3985</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>3991.3333333333335</v>
+      </c>
+      <c r="H86">
+        <v>3974.7210889620005</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>3992.7754156965948</v>
+      </c>
+      <c r="K86">
+        <v>3916.2186188275209</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>68.587797112076387</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>53</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>3937.1665393765279</v>
+      </c>
+      <c r="W86">
+        <v>3887.0908781184321</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>50.075661258095806</v>
+      </c>
+      <c r="Y86">
+        <v>51.218581339741867</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>4006</v>
+      </c>
+      <c r="D87">
+        <v>4091.95</v>
+      </c>
+      <c r="E87">
+        <v>3995</v>
+      </c>
+      <c r="F87">
+        <v>4036.05</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>4041</v>
+      </c>
+      <c r="H87">
+        <v>4007.860544481</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>4014.8142122084628</v>
+      </c>
+      <c r="K87">
+        <v>3933.7255924214051</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>79.120117473540702</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>41.050000000000182</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>96.949999999999818</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.42341413099536113</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>3952.3793794724465</v>
+      </c>
+      <c r="W87">
+        <v>3898.1248871466964</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>54.254492325750107</v>
+      </c>
+      <c r="Y87">
+        <v>51.825763536943512</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>4084</v>
+      </c>
+      <c r="D88">
+        <v>4084</v>
+      </c>
+      <c r="E88">
+        <v>3961.45</v>
+      </c>
+      <c r="F88">
+        <v>3975</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>4006.8166666666671</v>
+      </c>
+      <c r="H88">
+        <v>4007.3386055738338</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>4030.1888317176931</v>
+      </c>
+      <c r="K88">
+        <v>3939.8865718833149</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>52.703992227811128</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>13.550000000000182</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>122.55000000000018</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.11056711546307761</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>3955.8594749382241</v>
+      </c>
+      <c r="W88">
+        <v>3903.8193399506449</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>52.040134987579222</v>
+      </c>
+      <c r="Y88">
+        <v>51.868637827070657</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>3994</v>
+      </c>
+      <c r="D89">
+        <v>4007.5</v>
+      </c>
+      <c r="E89">
+        <v>3960</v>
+      </c>
+      <c r="F89">
+        <v>3962.45</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>3976.65</v>
+      </c>
+      <c r="H89">
+        <v>3991.9943027869167</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>4025.1468691137611</v>
+      </c>
+      <c r="K89">
+        <v>3944.3562225759115</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>48.5396456745666</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.4499999999998181</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>47.5</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>5.157894736841722E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>3956.8734018708051</v>
+      </c>
+      <c r="W89">
+        <v>3908.1623518061529</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>48.711050064652227</v>
+      </c>
+      <c r="Y89">
+        <v>51.237120274586971</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>3953</v>
+      </c>
+      <c r="D90">
+        <v>3994.9</v>
+      </c>
+      <c r="E90">
+        <v>3940</v>
+      </c>
+      <c r="F90">
+        <v>3947.7</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>3960.8666666666663</v>
+      </c>
+      <c r="H90">
+        <v>3976.4304847267913</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>4018.4253426440364</v>
+      </c>
+      <c r="K90">
+        <v>3943.388173114598</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>43.49114415681845</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>7.6999999999998181</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>54.900000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.14025500910746458</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>3955.4621092752964</v>
+      </c>
+      <c r="W90">
+        <v>3911.0910664871785</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>44.371042788117848</v>
+      </c>
+      <c r="Y90">
+        <v>49.863904777293143</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>3953</v>
+      </c>
+      <c r="D91">
+        <v>4012.5</v>
+      </c>
+      <c r="E91">
+        <v>3953</v>
+      </c>
+      <c r="F91">
+        <v>3980</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>3981.8333333333335</v>
+      </c>
+      <c r="H91">
+        <v>3979.1319090300622</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>4017.1085998342505</v>
+      </c>
+      <c r="K91">
+        <v>3945.5241346446874</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>56.013943732163426</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>59.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.45378151260504201</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>3959.2371693867894</v>
+      </c>
+      <c r="W91">
+        <v>3916.1954319325728</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>43.041737454216673</v>
+      </c>
+      <c r="Y91">
+        <v>48.499471312677848</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>3997.4</v>
+      </c>
+      <c r="D92">
+        <v>4002</v>
+      </c>
+      <c r="E92">
+        <v>3946.75</v>
+      </c>
+      <c r="F92">
+        <v>3947.95</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>3965.5666666666671</v>
+      </c>
+      <c r="H92">
+        <v>3972.3492878483648</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>4013.7511332044169</v>
+      </c>
+      <c r="K92">
+        <v>3945.7965491680902</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>43.937135289854112</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.1999999999998181</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>55.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>2.1719457013571367E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>3957.500681788822</v>
+      </c>
+      <c r="W92">
+        <v>3918.5476221597896</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>38.953059629032396</v>
+      </c>
+      <c r="Y92">
+        <v>46.590188975948756</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>3999</v>
+      </c>
+      <c r="D93">
+        <v>3999.95</v>
+      </c>
+      <c r="E93">
+        <v>3936.6</v>
+      </c>
+      <c r="F93">
+        <v>3950</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>3962.1833333333329</v>
+      </c>
+      <c r="H93">
+        <v>3967.2663105908487</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>4010.6842147145462</v>
+      </c>
+      <c r="K93">
+        <v>3943.7528715751814</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>44.887180981669736</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>13.400000000000091</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>63.349999999999909</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.21152328334648951</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>3956.346730744388</v>
+      </c>
+      <c r="W93">
+        <v>3920.8774279257314</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>35.469302818656615</v>
+      </c>
+      <c r="Y93">
+        <v>44.366011744490329</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>3958.4</v>
+      </c>
+      <c r="D94">
+        <v>3970.35</v>
+      </c>
+      <c r="E94">
+        <v>3909.95</v>
+      </c>
+      <c r="F94">
+        <v>3913.8</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>3931.3666666666663</v>
+      </c>
+      <c r="H94">
+        <v>3949.3164886287577</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>4001.7210558890915</v>
+      </c>
+      <c r="K94">
+        <v>3936.2411223362524</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>32.667705557660973</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>3.8500000000003638</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>60.400000000000091</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>6.3741721854310568E-2</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V94">
+        <v>3949.801079860636</v>
+      </c>
+      <c r="W94">
+        <v>3920.3531740053068</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>29.447905855329282</v>
+      </c>
+      <c r="Y94">
+        <v>41.382390566658117</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>3913.8</v>
+      </c>
+      <c r="D95">
+        <v>3970</v>
+      </c>
+      <c r="E95">
+        <v>3878</v>
+      </c>
+      <c r="F95">
+        <v>3899.9</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>3915.9666666666667</v>
+      </c>
+      <c r="H95">
+        <v>3932.6415776477124</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>3994.6719323581824</v>
+      </c>
+      <c r="K95">
+        <v>3923.2986507059741</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>28.892569256808461</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>92</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.23804347826087055</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>3942.1239906513074</v>
+      </c>
+      <c r="W95">
+        <v>3918.8381240789877</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>23.285866572319719</v>
+      </c>
+      <c r="Y95">
+        <v>37.763085767790436</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>3905</v>
+      </c>
+      <c r="D96">
+        <v>3922</v>
+      </c>
+      <c r="E96">
+        <v>3884.45</v>
+      </c>
+      <c r="F96">
+        <v>3890</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>3898.8166666666671</v>
+      </c>
+      <c r="H96">
+        <v>3915.7291221571895</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>3978.5226140563641</v>
+      </c>
+      <c r="K96">
+        <v>3914.6656172157577</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>26.197306825241629</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>5.5500000000001819</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>37.550000000000182</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.14780292942743423</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>3934.1049151664911</v>
+      </c>
+      <c r="W96">
+        <v>3916.7019667398035</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>17.402948426687544</v>
+      </c>
+      <c r="Y96">
+        <v>33.69105829956986</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>3885</v>
+      </c>
+      <c r="D97">
+        <v>3910</v>
+      </c>
+      <c r="E97">
+        <v>3870</v>
+      </c>
+      <c r="F97">
+        <v>3888</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>3889.3333333333335</v>
+      </c>
+      <c r="H97">
+        <v>3902.5312277452613</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>3963.295366488283</v>
+      </c>
+      <c r="K97">
+        <v>3904.7399245011447</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>25.594380385491768</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.45</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>3927.0118512947233</v>
+      </c>
+      <c r="W97">
+        <v>3914.5758951294479</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>12.435956165275456</v>
+      </c>
+      <c r="Y97">
+        <v>29.440037872710981</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>3895</v>
+      </c>
+      <c r="D98">
+        <v>3961.4</v>
+      </c>
+      <c r="E98">
+        <v>3895</v>
+      </c>
+      <c r="F98">
+        <v>3955.95</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>3937.4499999999994</v>
+      </c>
+      <c r="H98">
+        <v>3919.9906138726301</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>3962.8741739353313</v>
+      </c>
+      <c r="K98">
+        <v>3902.5754968342235</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>62.372200408184796</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>60.949999999999818</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>66.400000000000091</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.91792168674698393</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>3931.463874172458</v>
+      </c>
+      <c r="W98">
+        <v>3917.6406436383777</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>13.823230534080267</v>
+      </c>
+      <c r="Y98">
+        <v>26.31667640498484</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>3970</v>
+      </c>
+      <c r="D99">
+        <v>3977.85</v>
+      </c>
+      <c r="E99">
+        <v>3936.8</v>
+      </c>
+      <c r="F99">
+        <v>3945</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>3953.2166666666667</v>
+      </c>
+      <c r="H99">
+        <v>3936.6036402696482</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>3966.2021352830357</v>
+      </c>
+      <c r="K99">
+        <v>3910.1809419821739</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>56.724335104305567</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>8.1999999999998181</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>41.049999999999727</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.19975639464067899</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>3933.5463550690029</v>
+      </c>
+      <c r="W99">
+        <v>3919.6672626281274</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>13.879092440875411</v>
+      </c>
+      <c r="Y99">
+        <v>23.829159612162954</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>3939.85</v>
+      </c>
+      <c r="D100">
+        <v>3958.3</v>
+      </c>
+      <c r="E100">
+        <v>3845</v>
+      </c>
+      <c r="F100">
+        <v>3850</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>3884.4333333333329</v>
+      </c>
+      <c r="H100">
+        <v>3910.5184868014903</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>3964.4461052201391</v>
+      </c>
+      <c r="K100">
+        <v>3895.6962882083576</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>28.619703586218819</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>113.30000000000018</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>4.4130626654898426E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>3920.6930696737718</v>
+      </c>
+      <c r="W100">
+        <v>3914.5067246556737</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>6.186345018098109</v>
+      </c>
+      <c r="Y100">
+        <v>20.300596693349984</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>3856.1</v>
+      </c>
+      <c r="D101">
+        <v>3901.55</v>
+      </c>
+      <c r="E101">
+        <v>3811.7</v>
+      </c>
+      <c r="F101">
+        <v>3890.55</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>3867.9333333333329</v>
+      </c>
+      <c r="H101">
+        <v>3889.2259100674119</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>3950.4691929489973</v>
+      </c>
+      <c r="K101">
+        <v>3877.0304463842781</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>43.54405398542275</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>78.850000000000364</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>89.850000000000364</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.87757373400111349</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>3916.0556743393454</v>
+      </c>
+      <c r="W101">
+        <v>3912.732152458957</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>3.3235218803883981</v>
+      </c>
+      <c r="Y101">
+        <v>16.905181730757668</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>3879.95</v>
+      </c>
+      <c r="D102">
+        <v>3879.95</v>
+      </c>
+      <c r="E102">
+        <v>3780.05</v>
+      </c>
+      <c r="F102">
+        <v>3785</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>3815</v>
+      </c>
+      <c r="H102">
+        <v>3852.1129550337059</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>3934.7982611825532</v>
+      </c>
+      <c r="K102">
+        <v>3855.479236076661</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.914596856124302</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.9499999999998181</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>99.899999999999636</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.9549549549547912E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>3895.893262902523</v>
+      </c>
+      <c r="W102">
+        <v>3903.2705115360714</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-7.3772486335483336</v>
+      </c>
+      <c r="Y102">
+        <v>12.048695657896467</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>3868.55</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>3841.8</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>3830</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>3818.2000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>3825.7</v>
+      </c>
+      <c r="D103">
+        <v>3825.7</v>
+      </c>
+      <c r="E103">
+        <v>3721</v>
+      </c>
+      <c r="F103">
+        <v>3745</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>3763.9</v>
+      </c>
+      <c r="H103">
+        <v>3808.006477516853</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>3910.5542031419859</v>
+      </c>
+      <c r="K103">
+        <v>3825.5949613929583</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>21.744297529092098</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>104.69999999999982</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.22922636103151903</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>3872.6789147636732</v>
+      </c>
+      <c r="W103">
+        <v>3891.5467699408068</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-18.867855177133606</v>
+      </c>
+      <c r="Y103">
+        <v>5.8653854908904517</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>3801</v>
+      </c>
+      <c r="D104">
+        <v>3805.35</v>
+      </c>
+      <c r="E104">
+        <v>3742.15</v>
+      </c>
+      <c r="F104">
+        <v>3775.25</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>3774.25</v>
+      </c>
+      <c r="H104">
+        <v>3791.1282387584265</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>3887.1754913326558</v>
+      </c>
+      <c r="K104">
+        <v>3807.0516366389675</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>32.077022858069817</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>33.099999999999909</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>63.199999999999818</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.52373417721518989</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>3857.6898509538773</v>
+      </c>
+      <c r="W104">
+        <v>3882.9321943896362</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-25.242343435758812</v>
+      </c>
+      <c r="Y104">
+        <v>-0.35616029443940178</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>3820</v>
+      </c>
+      <c r="D105">
+        <v>3824.9</v>
+      </c>
+      <c r="E105">
+        <v>3708.6</v>
+      </c>
+      <c r="F105">
+        <v>3725.25</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>3752.9166666666665</v>
+      </c>
+      <c r="H105">
+        <v>3772.0224527125465</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>3873.3364932587324</v>
+      </c>
+      <c r="K105">
+        <v>3785.1734951636413</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>25.201821027312395</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>16.650000000000091</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>116.30000000000018</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.14316423043852161</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>3837.3144892686655</v>
+      </c>
+      <c r="W105">
+        <v>3871.2520318422557</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-33.937542573590235</v>
+      </c>
+      <c r="Y105">
+        <v>-7.072436750269568</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>3811.65</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>3780.4500000000003</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>3766.75</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>3753.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>3749</v>
+      </c>
+      <c r="D106">
+        <v>3779</v>
+      </c>
+      <c r="E106">
+        <v>3674.5</v>
+      </c>
+      <c r="F106">
+        <v>3711.8</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>3721.7666666666664</v>
+      </c>
+      <c r="H106">
+        <v>3746.8945596896065</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>3852.372828090125</v>
+      </c>
+      <c r="K106">
+        <v>3760.5793851272765</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>23.507629415819959</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>37.300000000000182</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>104.5</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.35693779904306394</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>3818.0045678427168</v>
+      </c>
+      <c r="W106">
+        <v>3859.4407702243111</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-41.436202381594285</v>
+      </c>
+      <c r="Y106">
+        <v>-13.945189876534512</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>3734</v>
+      </c>
+      <c r="D107">
+        <v>3819.35</v>
+      </c>
+      <c r="E107">
+        <v>3718.25</v>
+      </c>
+      <c r="F107">
+        <v>3782.1</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>3773.2333333333336</v>
+      </c>
+      <c r="H107">
+        <v>3760.06394651147</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>3845.0344218478749</v>
+      </c>
+      <c r="K107">
+        <v>3751.1728550989928</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>46.85119385791505</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>63.849999999999909</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>101.09999999999991</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.63155291790306589</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>3812.4807881746065</v>
+      </c>
+      <c r="W107">
+        <v>3853.7118242817696</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-41.231036107163163</v>
+      </c>
+      <c r="Y107">
+        <v>-19.402359122660243</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
